--- a/A3_Project_Demo_Digital_Transformation/Results_Data/Step4_Results_Ouput/2_Line_of_Defense/output_ad_xyz_ManagerReview_20211230_Noa.Emp7@xyz.com.xlsx
+++ b/A3_Project_Demo_Digital_Transformation/Results_Data/Step4_Results_Ouput/2_Line_of_Defense/output_ad_xyz_ManagerReview_20211230_Noa.Emp7@xyz.com.xlsx
@@ -17,112 +17,121 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="72">
   <si>
+    <t>AD_Privileged_Access</t>
+  </si>
+  <si>
+    <t>HR_Department_Name</t>
+  </si>
+  <si>
+    <t>HR_Manage_Email</t>
+  </si>
+  <si>
+    <t>AD_Lastname</t>
+  </si>
+  <si>
     <t>HR_Last_Name</t>
   </si>
   <si>
+    <t>zMatched</t>
+  </si>
+  <si>
+    <t>AD_Unique_AD_Departments</t>
+  </si>
+  <si>
+    <t>AD_WhenChanged</t>
+  </si>
+  <si>
+    <t>HR_Record_Type</t>
+  </si>
+  <si>
+    <t>AD_AccountExpiry</t>
+  </si>
+  <si>
+    <t>AD_EmailAddress</t>
+  </si>
+  <si>
+    <t>AD_Firstname</t>
+  </si>
+  <si>
+    <t>AD_Enabled</t>
+  </si>
+  <si>
+    <t>AD_DisplayName</t>
+  </si>
+  <si>
     <t>HR_Work_Email</t>
   </si>
   <si>
+    <t>AD_xyz_Grp_Tags</t>
+  </si>
+  <si>
+    <t>HR_Status</t>
+  </si>
+  <si>
+    <t>AD_Passwordset</t>
+  </si>
+  <si>
+    <t>HR_Termination_Date</t>
+  </si>
+  <si>
+    <t>AD_Description</t>
+  </si>
+  <si>
+    <t>HR_Employee_No</t>
+  </si>
+  <si>
+    <t>zDays_SinceLastLogonDate</t>
+  </si>
+  <si>
     <t>AD_CreateTimeStamp</t>
   </si>
   <si>
+    <t>AD_Company</t>
+  </si>
+  <si>
+    <t>AD_Department</t>
+  </si>
+  <si>
+    <t>AD_WhenCreated</t>
+  </si>
+  <si>
+    <t>zDays_SincePswdReset</t>
+  </si>
+  <si>
+    <t>zDays_SinceWhenCreated</t>
+  </si>
+  <si>
+    <t>zAD_User_Status</t>
+  </si>
+  <si>
+    <t>AD_SamAccountName</t>
+  </si>
+  <si>
+    <t>HR_First_Name</t>
+  </si>
+  <si>
+    <t>zDays_SinceWhenChanged</t>
+  </si>
+  <si>
+    <t>AD_LastLogonDate</t>
+  </si>
+  <si>
+    <t>HR_Division</t>
+  </si>
+  <si>
     <t>zTerminated_User_ActiveAD</t>
   </si>
   <si>
-    <t>zDays_SinceWhenCreated</t>
-  </si>
-  <si>
-    <t>HR_Record_Type</t>
-  </si>
-  <si>
-    <t>AD_Privileged_Access</t>
-  </si>
-  <si>
-    <t>AD_AccountExpiry</t>
-  </si>
-  <si>
-    <t>AD_WhenCreated</t>
-  </si>
-  <si>
-    <t>AD_WhenChanged</t>
-  </si>
-  <si>
-    <t>AD_xyz_Grp_Tags</t>
-  </si>
-  <si>
-    <t>zAD_User_Status</t>
-  </si>
-  <si>
-    <t>AD_Passwordset</t>
-  </si>
-  <si>
-    <t>AD_Company</t>
-  </si>
-  <si>
-    <t>AD_SamAccountName</t>
-  </si>
-  <si>
-    <t>AD_Unique_AD_Departments</t>
-  </si>
-  <si>
-    <t>AD_Department</t>
-  </si>
-  <si>
-    <t>HR_Division</t>
-  </si>
-  <si>
-    <t>HR_First_Name</t>
-  </si>
-  <si>
-    <t>AD_Firstname</t>
-  </si>
-  <si>
-    <t>HR_Department_Name</t>
-  </si>
-  <si>
-    <t>HR_Employee_No</t>
-  </si>
-  <si>
-    <t>HR_Termination_Date</t>
-  </si>
-  <si>
-    <t>zDays_SinceWhenChanged</t>
-  </si>
-  <si>
     <t>AD_xyz_Dept_Tags</t>
   </si>
   <si>
-    <t>zMatched</t>
-  </si>
-  <si>
-    <t>AD_Lastname</t>
-  </si>
-  <si>
-    <t>zDays_SincePswdReset</t>
-  </si>
-  <si>
-    <t>AD_Enabled</t>
-  </si>
-  <si>
-    <t>AD_EmailAddress</t>
-  </si>
-  <si>
-    <t>AD_Description</t>
-  </si>
-  <si>
-    <t>zDays_SinceLastLogonDate</t>
-  </si>
-  <si>
-    <t>AD_LastLogonDate</t>
-  </si>
-  <si>
-    <t>HR_Manage_Email</t>
-  </si>
-  <si>
-    <t>HR_Status</t>
-  </si>
-  <si>
-    <t>AD_DisplayName</t>
+    <t>AZURE</t>
+  </si>
+  <si>
+    <t>CRM product</t>
+  </si>
+  <si>
+    <t>Noa.Emp7@xyz.com</t>
   </si>
   <si>
     <t>Emp6</t>
@@ -131,13 +140,37 @@
     <t>Emp26</t>
   </si>
   <si>
+    <t>HR_Match</t>
+  </si>
+  <si>
+    <t>XY-Dept2</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>XYZ Employee</t>
+  </si>
+  <si>
     <t>joe.emp6@xyz.com</t>
   </si>
   <si>
     <t>maurice.emp26@xyz.com</t>
   </si>
   <si>
-    <t>XYZ Employee</t>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Maurice</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Joe Emp6</t>
+  </si>
+  <si>
+    <t>Maurice Emp26</t>
   </si>
   <si>
     <t>X</t>
@@ -146,58 +179,25 @@
     <t>Active</t>
   </si>
   <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Request#118</t>
+  </si>
+  <si>
+    <t>Request#98</t>
+  </si>
+  <si>
     <t>JOEEMP6x</t>
   </si>
   <si>
     <t>XONGEMP32x</t>
   </si>
   <si>
-    <t>XY-Dept2</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
     <t>Consulting</t>
   </si>
   <si>
     <t>Dev Ops</t>
-  </si>
-  <si>
-    <t>Joe</t>
-  </si>
-  <si>
-    <t>Maurice</t>
-  </si>
-  <si>
-    <t>AZURE</t>
-  </si>
-  <si>
-    <t>CRM product</t>
-  </si>
-  <si>
-    <t>HR_Match</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>Request#118</t>
-  </si>
-  <si>
-    <t>Request#98</t>
-  </si>
-  <si>
-    <t>Noa.Emp7@xyz.com</t>
-  </si>
-  <si>
-    <t>Leave</t>
-  </si>
-  <si>
-    <t>Joe Emp6</t>
-  </si>
-  <si>
-    <t>Maurice Emp26</t>
   </si>
   <si>
     <t>AD_Group</t>
@@ -712,80 +712,86 @@
       <c r="A2" s="1">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2">
+        <v>1006</v>
+      </c>
+      <c r="W2">
+        <v>106</v>
+      </c>
+      <c r="X2" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F2">
+      <c r="Z2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB2">
+        <v>109</v>
+      </c>
+      <c r="AC2">
         <v>108</v>
       </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K2" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="AD2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF2" t="s">
         <v>47</v>
-      </c>
-      <c r="T2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W2">
-        <v>1006</v>
-      </c>
-      <c r="Y2">
-        <v>106</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2">
-        <v>109</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>55</v>
       </c>
       <c r="AG2">
         <v>106</v>
@@ -794,12 +800,6 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -807,83 +807,86 @@
       <c r="A3" s="1">
         <v>153</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V3">
+        <v>1026</v>
+      </c>
+      <c r="W3">
+        <v>106</v>
+      </c>
+      <c r="X3" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F3">
+      <c r="Z3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB3">
+        <v>109</v>
+      </c>
+      <c r="AC3">
         <v>108</v>
       </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K3" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="AD3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF3" t="s">
         <v>48</v>
-      </c>
-      <c r="T3" t="s">
-        <v>50</v>
-      </c>
-      <c r="U3" t="s">
-        <v>50</v>
-      </c>
-      <c r="V3" t="s">
-        <v>52</v>
-      </c>
-      <c r="W3">
-        <v>1026</v>
-      </c>
-      <c r="Y3">
-        <v>106</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC3">
-        <v>109</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>56</v>
       </c>
       <c r="AG3">
         <v>106</v>
@@ -892,13 +895,10 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -916,22 +916,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -939,19 +939,19 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -959,19 +959,19 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -979,19 +979,19 @@
         <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -999,19 +999,19 @@
         <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1019,19 +1019,19 @@
         <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1039,19 +1039,19 @@
         <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1059,22 +1059,22 @@
         <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
         <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1082,22 +1082,22 @@
         <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1105,22 +1105,22 @@
         <v>149</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
         <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1128,19 +1128,19 @@
         <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1148,22 +1148,22 @@
         <v>151</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1171,19 +1171,19 @@
         <v>152</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1191,19 +1191,19 @@
         <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
